--- a/biology/Zoologie/Cladopathidae/Cladopathidae.xlsx
+++ b/biology/Zoologie/Cladopathidae/Cladopathidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cladopathidae sont une famille de cnidaires anthozoaires de l'ordre des Antipatharia.
 Ils sont appelés coraux noirs en raison de la couleur noire - brun foncé de leur squelette. La plupart des espèces de cette famille vivent en eaux profondes, en dessous de 210 m.
@@ -512,13 +524,15 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cladopathidae comprend les sous-familles et genres suivants :
-Selon ITIS      (9 décembre 2015)[2] :
+Selon ITIS      (9 décembre 2015) :
 sous-famille des Cladopathinae Kinoshita, 1910
 sous-famille des Hexapathinae Opresko, 2003
-Selon World Register of Marine Species                               (9 décembre 2015)[3] :
+Selon World Register of Marine Species                               (9 décembre 2015) :
 sous-famille des Cladopathinae Kinoshita, 1910
 genre Chrysopathes Opresko, 2003
 genre Cladopathes Brook, 1889
@@ -555,10 +569,12 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces coraux se trouvent dans les bassins océaniques de l'Atlantique et l'Indo-Pacifique dans les eaux tropicales aux eaux tempérées ou froides de l'Antarctique en Alaska[4].
-Leur plage de profondeur est comprise entre 210 et 4 667 m, dans des zones avec des courants et avec une gamme de températures comprises entre 0,04 et 20,42 °C[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces coraux se trouvent dans les bassins océaniques de l'Atlantique et l'Indo-Pacifique dans les eaux tropicales aux eaux tempérées ou froides de l'Antarctique en Alaska.
+Leur plage de profondeur est comprise entre 210 et 4 667 m, dans des zones avec des courants et avec une gamme de températures comprises entre 0,04 et 20,42 °C.
 Ils se trouvent principalement en eau profonde parce qu'ils ne disposent pas de zooxanthelles dans leurs tissus, de sorte qu'ils n'ont pas besoin de lumière et nécessitent des zones riches en plancton pour se nourrir.
 </t>
         </is>
